--- a/public/assets/excel/sample_escorts.xlsx
+++ b/public/assets/excel/sample_escorts.xlsx
@@ -86,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,16 +111,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Noto Sans Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,11 +164,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,17 +364,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="75.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.71"/>
@@ -389,7 +383,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.59"/>
@@ -435,15 +429,6 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -485,15 +470,6 @@
       <c r="M2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/assets/excel/sample_escorts.xlsx
+++ b/public/assets/excel/sample_escorts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">name_en</t>
   </si>
@@ -46,9 +46,6 @@
     <t xml:space="preserve">gender_id</t>
   </si>
   <si>
-    <t xml:space="preserve">nationality_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">internal_ranking_id</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">spoken_languages_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
   </si>
   <si>
     <t xml:space="preserve">John Doe</t>
@@ -159,12 +153,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,10 +362,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,19 +421,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>12345</v>
@@ -444,32 +437,27 @@
         <v>123456789</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/assets/excel/sample_escorts.xlsx
+++ b/public/assets/excel/sample_escorts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">name_en</t>
   </si>
@@ -37,12 +37,6 @@
     <t xml:space="preserve">email</t>
   </si>
   <si>
-    <t xml:space="preserve">title_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_ar</t>
-  </si>
-  <si>
     <t xml:space="preserve">gender_id</t>
   </si>
   <si>
@@ -62,12 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">john.doe@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">السيد</t>
   </si>
   <si>
     <t xml:space="preserve">5,6</t>
@@ -153,16 +141,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -362,10 +346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,20 +399,46 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>12345</v>
@@ -437,27 +447,88 @@
         <v>123456789</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2"/>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0"/>
+      <c r="AT3" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/assets/excel/sample_escorts.xlsx
+++ b/public/assets/excel/sample_escorts.xlsx
@@ -37,16 +37,16 @@
     <t xml:space="preserve">email</t>
   </si>
   <si>
-    <t xml:space="preserve">gender_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">internal_ranking_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spoken_languages_ids</t>
+    <t xml:space="preserve">gender_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internal_ranking_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spoken_languages_codes</t>
   </si>
   <si>
     <t xml:space="preserve">John Doe</t>
@@ -141,12 +141,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,7 +353,7 @@
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -399,45 +403,45 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -461,74 +465,74 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AB2" s="0"/>
-      <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="0"/>
-      <c r="AF2" s="0"/>
-      <c r="AG2" s="0"/>
-      <c r="AH2" s="0"/>
-      <c r="AI2" s="0"/>
-      <c r="AJ2" s="0"/>
-      <c r="AK2" s="0"/>
-      <c r="AL2" s="0"/>
-      <c r="AM2" s="0"/>
-      <c r="AN2" s="0"/>
-      <c r="AO2" s="0"/>
-      <c r="AP2" s="0"/>
-      <c r="AQ2" s="0"/>
-      <c r="AR2" s="0"/>
-      <c r="AS2" s="0"/>
-      <c r="AT2" s="0"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0"/>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
-      <c r="AK3" s="0"/>
-      <c r="AL3" s="0"/>
-      <c r="AM3" s="0"/>
-      <c r="AN3" s="0"/>
-      <c r="AO3" s="0"/>
-      <c r="AP3" s="0"/>
-      <c r="AQ3" s="0"/>
-      <c r="AR3" s="0"/>
-      <c r="AS3" s="0"/>
-      <c r="AT3" s="0"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/assets/excel/sample_escorts.xlsx
+++ b/public/assets/excel/sample_escorts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">name_en</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">phone_number</t>
   </si>
   <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
     <t xml:space="preserve">gender_code</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">جون دو</t>
-  </si>
-  <si>
-    <t xml:space="preserve">john.doe@example.com</t>
   </si>
   <si>
     <t xml:space="preserve">5,6</t>
@@ -353,7 +347,7 @@
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -400,9 +394,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J1" s="0"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -439,10 +431,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>12345</v>
@@ -450,21 +442,19 @@
       <c r="D2" s="1" t="n">
         <v>123456789</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>

--- a/public/assets/excel/sample_escorts.xlsx
+++ b/public/assets/excel/sample_escorts.xlsx
@@ -22,12 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t xml:space="preserve">name_ar</t>
+  </si>
+  <si>
     <t xml:space="preserve">name_en</t>
   </si>
   <si>
-    <t xml:space="preserve">name_ar</t>
-  </si>
-  <si>
     <t xml:space="preserve">military_number</t>
   </si>
   <si>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">spoken_languages_codes</t>
   </si>
   <si>
+    <t xml:space="preserve">جون دو</t>
+  </si>
+  <si>
     <t xml:space="preserve">John Doe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جون دو</t>
   </si>
   <si>
     <t xml:space="preserve">5,6</t>
@@ -347,12 +347,12 @@
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="75.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.7"/>
@@ -430,17 +430,17 @@
       <c r="AT1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>12345</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>123456789</v>
+        <v>971555343434</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
